--- a/PER Logger Data.xlsx
+++ b/PER Logger Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="486">
   <si>
     <t>Serial Number</t>
   </si>
@@ -1580,13 +1580,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1886,8 +1886,8 @@
   <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I376" sqref="I376"/>
+      <pane ySplit="2" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H318" sqref="H318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1919,10 +1919,10 @@
       <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -1937,16 +1937,16 @@
       <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>375</v>
       </c>
       <c r="O1" s="16" t="s">
@@ -1958,16 +1958,16 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1">
@@ -11618,6 +11618,9 @@
       <c r="G312" s="2">
         <v>-10</v>
       </c>
+      <c r="H312" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K312" s="9">
         <v>0</v>
       </c>
@@ -11714,6 +11717,9 @@
       <c r="G315" s="7">
         <v>-10</v>
       </c>
+      <c r="H315" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K315" s="10">
         <v>0</v>
       </c>
@@ -11807,6 +11813,9 @@
       <c r="G318" s="2">
         <v>-10</v>
       </c>
+      <c r="H318" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K318" s="9">
         <v>0</v>
       </c>
@@ -13312,6 +13321,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
@@ -13321,12 +13336,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
